--- a/Meetings/Create Event Registration Setup/Main.rvl.xlsx
+++ b/Meetings/Create Event Registration Setup/Main.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="211">
   <si>
     <t>Flow</t>
   </si>
@@ -588,6 +588,66 @@
   </si>
   <si>
     <t>Member Only Session</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\MeetingData.xlsx</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Meeting Setup "TUXr Meeting."</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Meeting Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Meeting Setup.</t>
+  </si>
+  <si>
+    <t>*******TUXr Event must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Registration Setup from the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Registration Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Registration Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Registration Setup.</t>
+  </si>
+  <si>
+    <t>*******TUXr Meeting must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>Open TUXr Meeting.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Registration Setup not found. Create Registration setup for testing.</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>Registration Setup:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Setup: </t>
+  </si>
+  <si>
+    <t>Verify Registration Setup is created.</t>
   </si>
 </sst>
 </file>
@@ -608,7 +668,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1402">
+  <borders count="1417">
     <border>
       <left/>
       <right/>
@@ -2017,11 +2077,26 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1402">
+  <cellXfs count="1417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -3424,6 +3499,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1399" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1400" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1401" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1402" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1403" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1404" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1405" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1406" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1407" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1408" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1409" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1410" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1411" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1412" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1413" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1414" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1415" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1416" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3433,7 +3523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H97"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -3503,68 +3593,74 @@
       <c r="A4" s="1399"/>
     </row>
     <row r="5">
-      <c r="A5" s="1398"/>
+      <c r="A5" s="1411"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1397" t="s">
+      <c r="A6" s="1398"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1397" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1396"/>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>191</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1395"/>
+      <c r="A8" s="1396"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1394"/>
+      <c r="A9" s="1395"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -3574,27 +3670,27 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1393"/>
+      <c r="A10" s="1394"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1392"/>
+      <c r="A11" s="1393"/>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -3604,23 +3700,26 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1391" t="s">
+      <c r="A12" s="1392"/>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1391" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1390"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14">
@@ -3647,39 +3746,34 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1388"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="1408"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1388"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1387"/>
-    </row>
     <row r="17">
-      <c r="A17" s="1386" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
+      <c r="A17" s="1409"/>
     </row>
     <row r="18">
-      <c r="A18" s="1385"/>
+      <c r="A18" s="1406"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -3696,382 +3790,404 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1384"/>
+      <c r="A19" s="1405"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1383"/>
+      <c r="A20" s="1404"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1382"/>
+      <c r="A21" s="1403"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1381"/>
+      <c r="A22" s="1402"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1380"/>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
+      <c r="A23" s="1387"/>
     </row>
     <row r="24">
-      <c r="A24" s="1379"/>
+      <c r="A24" s="1386" t="s">
+        <v>49</v>
+      </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1378"/>
+      <c r="A25" s="1385"/>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1377"/>
+      <c r="A26" s="1384"/>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1376"/>
+      <c r="A27" s="1383"/>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1375" t="s">
-        <v>83</v>
-      </c>
+      <c r="A28" s="1382"/>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1374" t="s">
-        <v>49</v>
-      </c>
+      <c r="A29" s="1381"/>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1373"/>
+      <c r="A30" s="1380"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1372"/>
+      <c r="A31" s="1379"/>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1378"/>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1377"/>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1376"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1375" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1374" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1373"/>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1412"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1413"/>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1372"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1371"/>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="41">
+      <c r="A41" s="1371"/>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D41" t="s">
         <v>64</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E41" t="s">
         <v>65</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F41" t="s">
         <v>26</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1370"/>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1369"/>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1368"/>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1367"/>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1366" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1365"/>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1364"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1363" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1362"/>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" s="1361"/>
+      <c r="A42" s="1370"/>
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -4079,572 +4195,519 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1369"/>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1368"/>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
         <v>13</v>
       </c>
-      <c r="G42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1360"/>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1367"/>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" t="s">
         <v>13</v>
       </c>
-      <c r="G43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1359"/>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1358"/>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1357"/>
+      <c r="A46" s="1366" t="s">
+        <v>73</v>
+      </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1356"/>
+      <c r="A47" s="1365"/>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1355"/>
-      <c r="B48" t="s">
+      <c r="A48" s="1364"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1363" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1362"/>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1416"/>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1415"/>
+      <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="E48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1354"/>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1353"/>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1352"/>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1351"/>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s">
         <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1350"/>
+      <c r="A53" s="1361"/>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1349"/>
+      <c r="A54" s="1360"/>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1348"/>
+      <c r="A55" s="1359"/>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
         <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1347"/>
+      <c r="A56" s="1358"/>
       <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1357"/>
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>63</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>91</v>
       </c>
-      <c r="G56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1346"/>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1356"/>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>47</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>105</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>106</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>45</v>
       </c>
-      <c r="G57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1345"/>
-      <c r="B58" t="s">
+      <c r="G58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1355"/>
+      <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>63</v>
-      </c>
-      <c r="F58" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1344"/>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" t="s">
-        <v>129</v>
       </c>
       <c r="F59" t="s">
         <v>91</v>
       </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1343"/>
+      <c r="A60" s="1354"/>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1342"/>
+      <c r="A61" s="1353"/>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1341"/>
+      <c r="A62" s="1352"/>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1340"/>
+      <c r="A63" s="1351"/>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1339"/>
+      <c r="A64" s="1350"/>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1338"/>
+      <c r="A65" s="1349"/>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
         <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1337"/>
+      <c r="A66" s="1348"/>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1336"/>
+      <c r="A67" s="1347"/>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1335"/>
+      <c r="A68" s="1346"/>
       <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1345"/>
+      <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="E68" t="s">
-        <v>161</v>
-      </c>
-      <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1334"/>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>43</v>
-      </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1333"/>
+      <c r="A70" s="1344"/>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1332"/>
+      <c r="A71" s="1343"/>
       <c r="B71" t="s">
         <v>3</v>
       </c>
@@ -4652,61 +4715,104 @@
         <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1331"/>
+      <c r="A72" s="1342"/>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1341"/>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" t="s">
         <v>13</v>
       </c>
-      <c r="G72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1330"/>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73" t="s">
-        <v>91</v>
-      </c>
       <c r="G73" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1329"/>
+      <c r="A74" s="1340"/>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1328" t="s">
-        <v>32</v>
-      </c>
+      <c r="A75" s="1339"/>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1327"/>
+      <c r="A76" s="1338"/>
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -4714,55 +4820,201 @@
         <v>47</v>
       </c>
       <c r="D76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1337"/>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1336"/>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1335"/>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1334"/>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1333"/>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1332"/>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1329"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1328" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1327"/>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" t="s">
         <v>103</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E85" t="s">
         <v>56</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F85" t="s">
         <v>13</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1326" t="s">
+    <row r="86">
+      <c r="A86" s="1326" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1325"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1324"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1323"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1322"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1321"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1320"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1315"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1316"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1317"/>
-    </row>
     <row r="87">
-      <c r="A87" s="1318"/>
+      <c r="A87" s="1325"/>
     </row>
     <row r="88">
-      <c r="A88" s="1319"/>
+      <c r="A88" s="1324"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1323"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1322"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1321"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1320"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1315"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1316"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1317"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1318"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1319"/>
     </row>
   </sheetData>
 </worksheet>
